--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10201_プロジェクト登録.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10201_プロジェクト登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD04846-E236-45AF-A4D6-9178A6DF3300}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD6E23F-FCAD-4908-BA36-B702CD584198}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2526,27 +2526,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>確認</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>「確認」ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>2.6.5. 確認イベント</t>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>3. WA1020102(プロジェクト登録確認画面)</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -3001,19 +2980,6 @@
     <t>組織.組織ID</t>
   </si>
   <si>
-    <t>2020年3月版では以下の条件で仮実装</t>
-    <rPh sb="10" eb="12">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>カリジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -3120,6 +3086,40 @@
       <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>2022年8月版では以下の条件で仮実装</t>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カリジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>「登録」ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2.6.5. 登録イベント</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -5556,60 +5556,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C468F9-353D-4DBF-8150-0530B9D2108D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="914400" y="971550"/>
-          <a:ext cx="6657975" cy="5810250"/>
+          <a:off x="838200" y="1085850"/>
+          <a:ext cx="6726555" cy="5577840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5846,7 +5829,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2019</a:t>
+            <a:t>2022</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -5866,7 +5849,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -5963,7 +5946,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>2019</a:t>
+            <a:t>2022</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -5983,7 +5966,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>9</a:t>
+            <a:t>8</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -6740,7 +6723,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="19"/>
       <c r="J23" s="15" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -7786,7 +7769,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="243" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C9" s="244"/>
       <c r="D9" s="245">
@@ -7795,12 +7778,12 @@
       <c r="E9" s="246"/>
       <c r="F9" s="247"/>
       <c r="G9" s="243" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H9" s="248"/>
       <c r="I9" s="244"/>
       <c r="J9" s="237" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K9" s="241"/>
       <c r="L9" s="241"/>
@@ -7809,7 +7792,7 @@
       <c r="O9" s="241"/>
       <c r="P9" s="242"/>
       <c r="Q9" s="237" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="R9" s="238"/>
       <c r="S9" s="238"/>
@@ -7826,7 +7809,7 @@
       <c r="AD9" s="238"/>
       <c r="AE9" s="239"/>
       <c r="AF9" s="240" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG9" s="241"/>
       <c r="AH9" s="241"/>
@@ -11003,7 +10986,7 @@
       <c r="E10" s="300"/>
       <c r="F10" s="301"/>
       <c r="G10" s="201" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H10" s="95"/>
       <c r="I10" s="95"/>
@@ -11143,7 +11126,7 @@
       <c r="E14" s="298"/>
       <c r="F14" s="298"/>
       <c r="G14" s="102" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H14" s="103"/>
       <c r="I14" s="103"/>
@@ -11923,7 +11906,7 @@
       <c r="S60" s="331"/>
       <c r="T60" s="332"/>
       <c r="U60" s="338" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="V60" s="322"/>
       <c r="W60" s="322"/>
@@ -11944,7 +11927,7 @@
       <c r="AF60" s="322"/>
       <c r="AG60" s="323"/>
       <c r="AL60" s="240" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AM60" s="311" t="s">
         <v>195</v>
@@ -11991,7 +11974,7 @@
       <c r="S61" s="331"/>
       <c r="T61" s="332"/>
       <c r="U61" s="338" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="V61" s="322"/>
       <c r="W61" s="322"/>
@@ -12012,7 +11995,7 @@
       <c r="AF61" s="322"/>
       <c r="AG61" s="323"/>
       <c r="AL61" s="240" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AM61" s="311" t="s">
         <v>195</v>
@@ -12037,7 +12020,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="240" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F62" s="311"/>
       <c r="G62" s="311"/>
@@ -12084,7 +12067,7 @@
       <c r="AJ62" s="142"/>
       <c r="AK62" s="142"/>
       <c r="AL62" s="240" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AM62" s="311" t="s">
         <v>190</v>
@@ -12130,7 +12113,7 @@
       <c r="S63" s="331"/>
       <c r="T63" s="332"/>
       <c r="U63" s="338" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="V63" s="322"/>
       <c r="W63" s="322"/>
@@ -12155,7 +12138,7 @@
       <c r="AJ63" s="142"/>
       <c r="AK63" s="142"/>
       <c r="AL63" s="240" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AM63" s="311" t="s">
         <v>191</v>
@@ -12201,7 +12184,7 @@
       <c r="S64" s="331"/>
       <c r="T64" s="332"/>
       <c r="U64" s="338" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="V64" s="322"/>
       <c r="W64" s="322"/>
@@ -12226,7 +12209,7 @@
       <c r="AJ64" s="142"/>
       <c r="AK64" s="142"/>
       <c r="AL64" s="240" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AM64" s="311" t="s">
         <v>192</v>
@@ -12293,7 +12276,7 @@
       <c r="AF65" s="322"/>
       <c r="AG65" s="323"/>
       <c r="AL65" s="240" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AM65" s="311" t="s">
         <v>199</v>
@@ -12357,7 +12340,7 @@
       <c r="AF66" s="322"/>
       <c r="AG66" s="323"/>
       <c r="AL66" s="240" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AM66" s="311" t="s">
         <v>195</v>
@@ -12425,7 +12408,7 @@
       <c r="AF67" s="322"/>
       <c r="AG67" s="323"/>
       <c r="AL67" s="240" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AM67" s="311" t="s">
         <v>196</v>
@@ -12493,7 +12476,7 @@
       <c r="AF68" s="322"/>
       <c r="AG68" s="323"/>
       <c r="AL68" s="237" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AM68" s="322" t="s">
         <v>197</v>
@@ -12516,13 +12499,13 @@
         <v>10</v>
       </c>
       <c r="E69" s="237" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F69" s="322"/>
       <c r="G69" s="322"/>
       <c r="H69" s="323"/>
       <c r="I69" s="339" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J69" s="339"/>
       <c r="K69" s="339"/>
@@ -12538,7 +12521,7 @@
       <c r="S69" s="331"/>
       <c r="T69" s="332"/>
       <c r="U69" s="324" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V69" s="322"/>
       <c r="W69" s="322"/>
@@ -12563,7 +12546,7 @@
       <c r="AJ69" s="167"/>
       <c r="AK69" s="142"/>
       <c r="AL69" s="240" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AM69" s="311" t="s">
         <v>193</v>
@@ -12585,13 +12568,13 @@
         <v>11</v>
       </c>
       <c r="E70" s="237" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F70" s="322"/>
       <c r="G70" s="322"/>
       <c r="H70" s="323"/>
       <c r="I70" s="339" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J70" s="339"/>
       <c r="K70" s="339"/>
@@ -12607,7 +12590,7 @@
       <c r="S70" s="331"/>
       <c r="T70" s="332"/>
       <c r="U70" s="324" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="V70" s="322"/>
       <c r="W70" s="322"/>
@@ -12628,7 +12611,7 @@
       <c r="AF70" s="238"/>
       <c r="AG70" s="239"/>
       <c r="AL70" s="240" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AM70" s="311" t="s">
         <v>194</v>
@@ -13291,7 +13274,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="400" t="s">
-        <v>254</v>
+        <v>325</v>
       </c>
       <c r="F87" s="381"/>
       <c r="G87" s="381"/>
@@ -13299,7 +13282,7 @@
       <c r="I87" s="381"/>
       <c r="J87" s="382"/>
       <c r="K87" s="237" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="L87" s="322"/>
       <c r="M87" s="322"/>
@@ -13759,7 +13742,7 @@
       <c r="K106" s="118"/>
       <c r="L106" s="119"/>
       <c r="M106" s="221" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N106" s="118"/>
       <c r="O106" s="118"/>
@@ -13847,7 +13830,7 @@
     </row>
     <row r="108" spans="3:58" x14ac:dyDescent="0.15">
       <c r="G108" s="419" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H108" s="320"/>
       <c r="I108" s="320"/>
@@ -13940,14 +13923,14 @@
     <row r="110" spans="3:58" x14ac:dyDescent="0.15">
       <c r="G110" s="117"/>
       <c r="H110" s="206" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I110" s="118"/>
       <c r="J110" s="118"/>
       <c r="K110" s="118"/>
       <c r="L110" s="119"/>
       <c r="M110" s="119" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N110" s="118"/>
       <c r="O110" s="118"/>
@@ -14361,7 +14344,7 @@
     </row>
     <row r="128" spans="1:58" x14ac:dyDescent="0.15">
       <c r="AL128" s="106" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="129" spans="5:58" s="111" customFormat="1" x14ac:dyDescent="0.15">
@@ -14650,10 +14633,10 @@
       <c r="AP134" s="118"/>
       <c r="AQ134" s="119"/>
       <c r="AR134" s="221" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AS134" s="206" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AT134" s="118"/>
       <c r="AU134" s="206"/>
@@ -14716,7 +14699,7 @@
     </row>
     <row r="136" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G136" s="419" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H136" s="320"/>
       <c r="I136" s="320"/>
@@ -14740,7 +14723,7 @@
       <c r="AJ136" s="113"/>
       <c r="AK136" s="113"/>
       <c r="AL136" s="419" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AM136" s="320"/>
       <c r="AN136" s="320"/>
@@ -14811,14 +14794,14 @@
     <row r="138" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G138" s="117"/>
       <c r="H138" s="206" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I138" s="118"/>
       <c r="J138" s="118"/>
       <c r="K138" s="118"/>
       <c r="L138" s="119"/>
       <c r="M138" s="119" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N138" s="118"/>
       <c r="O138" s="118"/>
@@ -14837,14 +14820,14 @@
       <c r="AK138" s="113"/>
       <c r="AL138" s="117"/>
       <c r="AM138" s="206" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AN138" s="118"/>
       <c r="AO138" s="118"/>
       <c r="AP138" s="118"/>
       <c r="AQ138" s="119"/>
       <c r="AR138" s="119" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AS138" s="118"/>
       <c r="AT138" s="118"/>
@@ -15374,7 +15357,7 @@
     <row r="159" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C159" s="108"/>
       <c r="D159" s="173" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="E159" s="109"/>
       <c r="AJ159" s="113"/>
@@ -15609,7 +15592,7 @@
       <c r="K164" s="309"/>
       <c r="L164" s="310"/>
       <c r="M164" s="401" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N164" s="402"/>
       <c r="O164" s="402"/>
@@ -15782,7 +15765,7 @@
       <c r="D171" s="108"/>
       <c r="E171" s="133"/>
       <c r="F171" s="72" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G171" s="129"/>
       <c r="H171" s="129"/>
@@ -16236,7 +16219,7 @@
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="79" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -16498,7 +16481,7 @@
       <c r="AJ48" s="142"/>
       <c r="AK48" s="142"/>
       <c r="AL48" s="64" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AM48" s="142"/>
       <c r="AN48" s="142"/>
@@ -16722,7 +16705,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="240" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F53" s="311"/>
       <c r="G53" s="311"/>
@@ -17013,7 +16996,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="240" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F58" s="311"/>
       <c r="G58" s="311"/>
@@ -17127,7 +17110,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="237" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F60" s="322"/>
       <c r="G60" s="322"/>
@@ -17186,7 +17169,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="237" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F61" s="322"/>
       <c r="G61" s="322"/>
@@ -17837,7 +17820,7 @@
       <c r="P76" s="322"/>
       <c r="Q76" s="323"/>
       <c r="R76" s="237" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S76" s="322"/>
       <c r="T76" s="322"/>
@@ -17882,7 +17865,7 @@
       <c r="P77" s="322"/>
       <c r="Q77" s="323"/>
       <c r="R77" s="237" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S77" s="322"/>
       <c r="T77" s="322"/>
@@ -18089,7 +18072,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="437" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I95" s="435"/>
       <c r="J95" s="435"/>
@@ -18097,14 +18080,14 @@
       <c r="L95" s="435"/>
       <c r="M95" s="436"/>
       <c r="N95" s="207" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O95" s="208"/>
       <c r="P95" s="208"/>
       <c r="Q95" s="208"/>
       <c r="R95" s="209"/>
       <c r="S95" s="437" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T95" s="435"/>
       <c r="U95" s="435"/>
@@ -18129,7 +18112,7 @@
         <v>2</v>
       </c>
       <c r="H96" s="437" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I96" s="435"/>
       <c r="J96" s="435"/>
@@ -18144,7 +18127,7 @@
       <c r="Q96" s="450"/>
       <c r="R96" s="451"/>
       <c r="S96" s="437" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="T96" s="435"/>
       <c r="U96" s="435"/>
@@ -18169,7 +18152,7 @@
         <v>3</v>
       </c>
       <c r="H97" s="437" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I97" s="435"/>
       <c r="J97" s="435"/>
@@ -18182,7 +18165,7 @@
       <c r="Q97" s="453"/>
       <c r="R97" s="454"/>
       <c r="S97" s="437" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="T97" s="435"/>
       <c r="U97" s="435"/>
@@ -18207,7 +18190,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="437" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I98" s="435"/>
       <c r="J98" s="435"/>
@@ -18220,7 +18203,7 @@
       <c r="Q98" s="453"/>
       <c r="R98" s="454"/>
       <c r="S98" s="437" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="T98" s="435"/>
       <c r="U98" s="435"/>
@@ -18258,7 +18241,7 @@
       <c r="Q99" s="453"/>
       <c r="R99" s="454"/>
       <c r="S99" s="437" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="T99" s="435"/>
       <c r="U99" s="435"/>
@@ -18296,7 +18279,7 @@
       <c r="Q100" s="453"/>
       <c r="R100" s="454"/>
       <c r="S100" s="437" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="T100" s="435"/>
       <c r="U100" s="435"/>
@@ -18321,7 +18304,7 @@
         <v>7</v>
       </c>
       <c r="H101" s="437" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I101" s="435"/>
       <c r="J101" s="435"/>
@@ -18359,7 +18342,7 @@
         <v>8</v>
       </c>
       <c r="H102" s="437" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I102" s="435"/>
       <c r="J102" s="435"/>
@@ -18397,7 +18380,7 @@
         <v>9</v>
       </c>
       <c r="H103" s="437" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I103" s="435"/>
       <c r="J103" s="435"/>
@@ -18410,7 +18393,7 @@
       <c r="Q103" s="453"/>
       <c r="R103" s="454"/>
       <c r="S103" s="437" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="T103" s="435"/>
       <c r="U103" s="435"/>
@@ -18435,7 +18418,7 @@
         <v>10</v>
       </c>
       <c r="H104" s="437" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I104" s="435"/>
       <c r="J104" s="435"/>
@@ -18448,7 +18431,7 @@
       <c r="Q104" s="453"/>
       <c r="R104" s="454"/>
       <c r="S104" s="437" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="T104" s="435"/>
       <c r="U104" s="435"/>
@@ -18601,7 +18584,7 @@
     </row>
     <row r="112" spans="5:37" x14ac:dyDescent="0.15">
       <c r="F112" s="106" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.15">
@@ -18616,7 +18599,7 @@
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F119" s="106" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -20033,13 +20016,13 @@
         <v>1</v>
       </c>
       <c r="E59" s="460" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F59" s="461"/>
       <c r="G59" s="461"/>
       <c r="H59" s="462"/>
       <c r="I59" s="237" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J59" s="322"/>
       <c r="K59" s="322"/>
@@ -20048,7 +20031,7 @@
       <c r="N59" s="322"/>
       <c r="O59" s="323"/>
       <c r="P59" s="237" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q59" s="322"/>
       <c r="R59" s="322"/>
@@ -20060,7 +20043,7 @@
       <c r="X59" s="322"/>
       <c r="Y59" s="323"/>
       <c r="Z59" s="237" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AA59" s="322"/>
       <c r="AB59" s="322"/>
@@ -20108,7 +20091,7 @@
     <row r="63" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A63" s="111"/>
       <c r="D63" s="106" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.15">
@@ -20119,7 +20102,7 @@
       <c r="A65" s="111"/>
       <c r="D65" s="106"/>
       <c r="E65" s="106" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.15">
@@ -20511,7 +20494,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="81" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B5" s="220" t="s">
         <v>163</v>
@@ -20538,7 +20521,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="81" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -20548,27 +20531,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="81" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="81" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="81" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="81" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="81" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10201_プロジェクト登録.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10201_プロジェクト登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA90438A-BF8F-4C55-B91A-D773AAAC00C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D98930-5F58-4E26-8E2D-949CE62F3A36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2534,16 +2534,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>DBによる自動採番</t>
-    <rPh sb="5" eb="7">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サイバン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>プロジェクトID</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -3149,6 +3139,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>DBによる自動採番</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -6753,7 +6747,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="19"/>
       <c r="J23" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -7799,7 +7793,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="235" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C9" s="237"/>
       <c r="D9" s="262">
@@ -7808,12 +7802,12 @@
       <c r="E9" s="263"/>
       <c r="F9" s="264"/>
       <c r="G9" s="235" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H9" s="236"/>
       <c r="I9" s="237"/>
       <c r="J9" s="244" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K9" s="248"/>
       <c r="L9" s="248"/>
@@ -7822,7 +7816,7 @@
       <c r="O9" s="248"/>
       <c r="P9" s="249"/>
       <c r="Q9" s="244" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R9" s="245"/>
       <c r="S9" s="245"/>
@@ -7839,7 +7833,7 @@
       <c r="AD9" s="245"/>
       <c r="AE9" s="246"/>
       <c r="AF9" s="247" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG9" s="248"/>
       <c r="AH9" s="248"/>
@@ -11016,7 +11010,7 @@
       <c r="E10" s="300"/>
       <c r="F10" s="301"/>
       <c r="G10" s="201" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H10" s="95"/>
       <c r="I10" s="95"/>
@@ -11156,7 +11150,7 @@
       <c r="E14" s="298"/>
       <c r="F14" s="298"/>
       <c r="G14" s="102" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H14" s="103"/>
       <c r="I14" s="103"/>
@@ -11936,7 +11930,7 @@
       <c r="S60" s="341"/>
       <c r="T60" s="342"/>
       <c r="U60" s="369" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="V60" s="336"/>
       <c r="W60" s="336"/>
@@ -11957,7 +11951,7 @@
       <c r="AF60" s="336"/>
       <c r="AG60" s="337"/>
       <c r="AL60" s="247" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM60" s="311" t="s">
         <v>195</v>
@@ -12004,7 +11998,7 @@
       <c r="S61" s="341"/>
       <c r="T61" s="342"/>
       <c r="U61" s="369" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V61" s="336"/>
       <c r="W61" s="336"/>
@@ -12025,7 +12019,7 @@
       <c r="AF61" s="336"/>
       <c r="AG61" s="337"/>
       <c r="AL61" s="247" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AM61" s="311" t="s">
         <v>195</v>
@@ -12097,7 +12091,7 @@
       <c r="AJ62" s="142"/>
       <c r="AK62" s="142"/>
       <c r="AL62" s="247" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AM62" s="311" t="s">
         <v>190</v>
@@ -12143,7 +12137,7 @@
       <c r="S63" s="341"/>
       <c r="T63" s="342"/>
       <c r="U63" s="369" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V63" s="336"/>
       <c r="W63" s="336"/>
@@ -12168,7 +12162,7 @@
       <c r="AJ63" s="142"/>
       <c r="AK63" s="142"/>
       <c r="AL63" s="247" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AM63" s="311" t="s">
         <v>191</v>
@@ -12214,7 +12208,7 @@
       <c r="S64" s="341"/>
       <c r="T64" s="342"/>
       <c r="U64" s="369" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="V64" s="336"/>
       <c r="W64" s="336"/>
@@ -12239,7 +12233,7 @@
       <c r="AJ64" s="142"/>
       <c r="AK64" s="142"/>
       <c r="AL64" s="247" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM64" s="311" t="s">
         <v>192</v>
@@ -12300,13 +12294,13 @@
         <v>84</v>
       </c>
       <c r="AD65" s="244" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AE65" s="336"/>
       <c r="AF65" s="336"/>
       <c r="AG65" s="337"/>
       <c r="AL65" s="247" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AM65" s="311" t="s">
         <v>199</v>
@@ -12370,7 +12364,7 @@
       <c r="AF66" s="336"/>
       <c r="AG66" s="337"/>
       <c r="AL66" s="247" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AM66" s="311" t="s">
         <v>195</v>
@@ -12438,7 +12432,7 @@
       <c r="AF67" s="336"/>
       <c r="AG67" s="337"/>
       <c r="AL67" s="247" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AM67" s="311" t="s">
         <v>196</v>
@@ -12506,7 +12500,7 @@
       <c r="AF68" s="336"/>
       <c r="AG68" s="337"/>
       <c r="AL68" s="244" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM68" s="336" t="s">
         <v>197</v>
@@ -12529,13 +12523,13 @@
         <v>10</v>
       </c>
       <c r="E69" s="244" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F69" s="336"/>
       <c r="G69" s="336"/>
       <c r="H69" s="337"/>
       <c r="I69" s="339" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J69" s="339"/>
       <c r="K69" s="339"/>
@@ -12551,7 +12545,7 @@
       <c r="S69" s="341"/>
       <c r="T69" s="342"/>
       <c r="U69" s="335" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V69" s="336"/>
       <c r="W69" s="336"/>
@@ -12576,7 +12570,7 @@
       <c r="AJ69" s="167"/>
       <c r="AK69" s="142"/>
       <c r="AL69" s="247" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AM69" s="311" t="s">
         <v>193</v>
@@ -12598,13 +12592,13 @@
         <v>11</v>
       </c>
       <c r="E70" s="244" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F70" s="336"/>
       <c r="G70" s="336"/>
       <c r="H70" s="337"/>
       <c r="I70" s="339" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J70" s="339"/>
       <c r="K70" s="339"/>
@@ -12620,7 +12614,7 @@
       <c r="S70" s="341"/>
       <c r="T70" s="342"/>
       <c r="U70" s="335" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V70" s="336"/>
       <c r="W70" s="336"/>
@@ -12641,7 +12635,7 @@
       <c r="AF70" s="245"/>
       <c r="AG70" s="246"/>
       <c r="AL70" s="247" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM70" s="311" t="s">
         <v>194</v>
@@ -13304,7 +13298,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="399" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F87" s="389"/>
       <c r="G87" s="389"/>
@@ -13312,7 +13306,7 @@
       <c r="I87" s="389"/>
       <c r="J87" s="390"/>
       <c r="K87" s="244" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L87" s="336"/>
       <c r="M87" s="336"/>
@@ -13765,14 +13759,14 @@
     <row r="106" spans="3:58" x14ac:dyDescent="0.15">
       <c r="G106" s="117"/>
       <c r="H106" s="206" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I106" s="118"/>
       <c r="J106" s="118"/>
       <c r="K106" s="118"/>
       <c r="L106" s="119"/>
       <c r="M106" s="221" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N106" s="118"/>
       <c r="O106" s="118"/>
@@ -13860,7 +13854,7 @@
     </row>
     <row r="108" spans="3:58" x14ac:dyDescent="0.15">
       <c r="G108" s="333" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H108" s="331"/>
       <c r="I108" s="331"/>
@@ -13953,14 +13947,14 @@
     <row r="110" spans="3:58" x14ac:dyDescent="0.15">
       <c r="G110" s="117"/>
       <c r="H110" s="206" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I110" s="118"/>
       <c r="J110" s="118"/>
       <c r="K110" s="118"/>
       <c r="L110" s="119"/>
       <c r="M110" s="221" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N110" s="118"/>
       <c r="O110" s="118"/>
@@ -14374,7 +14368,7 @@
     </row>
     <row r="128" spans="1:58" x14ac:dyDescent="0.15">
       <c r="AL128" s="106" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="5:58" s="111" customFormat="1" x14ac:dyDescent="0.15">
@@ -14628,7 +14622,7 @@
     <row r="134" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G134" s="117"/>
       <c r="H134" s="206" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I134" s="118"/>
       <c r="J134" s="118"/>
@@ -14663,10 +14657,10 @@
       <c r="AP134" s="118"/>
       <c r="AQ134" s="119"/>
       <c r="AR134" s="221" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AS134" s="206" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AT134" s="118"/>
       <c r="AU134" s="206"/>
@@ -14729,7 +14723,7 @@
     </row>
     <row r="136" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G136" s="333" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H136" s="331"/>
       <c r="I136" s="331"/>
@@ -14753,7 +14747,7 @@
       <c r="AJ136" s="113"/>
       <c r="AK136" s="113"/>
       <c r="AL136" s="333" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AM136" s="331"/>
       <c r="AN136" s="331"/>
@@ -14824,14 +14818,14 @@
     <row r="138" spans="5:58" x14ac:dyDescent="0.15">
       <c r="G138" s="117"/>
       <c r="H138" s="206" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I138" s="118"/>
       <c r="J138" s="118"/>
       <c r="K138" s="118"/>
       <c r="L138" s="119"/>
       <c r="M138" s="221" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N138" s="118"/>
       <c r="O138" s="118"/>
@@ -14850,14 +14844,14 @@
       <c r="AK138" s="113"/>
       <c r="AL138" s="117"/>
       <c r="AM138" s="206" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AN138" s="118"/>
       <c r="AO138" s="118"/>
       <c r="AP138" s="118"/>
       <c r="AQ138" s="119"/>
       <c r="AR138" s="119" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AS138" s="118"/>
       <c r="AT138" s="118"/>
@@ -15387,7 +15381,7 @@
     <row r="159" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C159" s="108"/>
       <c r="D159" s="173" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E159" s="109"/>
       <c r="AJ159" s="113"/>
@@ -15622,7 +15616,7 @@
       <c r="K164" s="309"/>
       <c r="L164" s="310"/>
       <c r="M164" s="400" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N164" s="401"/>
       <c r="O164" s="401"/>
@@ -15634,12 +15628,12 @@
       <c r="U164" s="401"/>
       <c r="V164" s="402"/>
       <c r="W164" s="377" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="X164" s="378"/>
       <c r="Y164" s="379"/>
       <c r="Z164" s="391" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AA164" s="394"/>
       <c r="AB164" s="394"/>
@@ -15795,7 +15789,7 @@
       <c r="D171" s="108"/>
       <c r="E171" s="133"/>
       <c r="F171" s="72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G171" s="129"/>
       <c r="H171" s="129"/>
@@ -16512,7 +16506,7 @@
       <c r="AJ48" s="142"/>
       <c r="AK48" s="142"/>
       <c r="AL48" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AM48" s="142"/>
       <c r="AN48" s="142"/>
@@ -16736,7 +16730,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="247" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F53" s="311"/>
       <c r="G53" s="311"/>
@@ -16952,7 +16946,7 @@
         <v>84</v>
       </c>
       <c r="AD56" s="244" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AE56" s="336"/>
       <c r="AF56" s="336"/>
@@ -17027,7 +17021,7 @@
         <v>8</v>
       </c>
       <c r="E58" s="247" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F58" s="311"/>
       <c r="G58" s="311"/>
@@ -17141,7 +17135,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="244" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F60" s="336"/>
       <c r="G60" s="336"/>
@@ -17200,7 +17194,7 @@
         <v>11</v>
       </c>
       <c r="E61" s="244" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F61" s="336"/>
       <c r="G61" s="336"/>
@@ -17851,7 +17845,7 @@
       <c r="P76" s="336"/>
       <c r="Q76" s="337"/>
       <c r="R76" s="244" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S76" s="336"/>
       <c r="T76" s="336"/>
@@ -17896,7 +17890,7 @@
       <c r="P77" s="336"/>
       <c r="Q77" s="337"/>
       <c r="R77" s="244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S77" s="336"/>
       <c r="T77" s="336"/>
@@ -18103,7 +18097,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="435" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I95" s="436"/>
       <c r="J95" s="436"/>
@@ -18111,14 +18105,14 @@
       <c r="L95" s="436"/>
       <c r="M95" s="437"/>
       <c r="N95" s="207" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="O95" s="208"/>
       <c r="P95" s="208"/>
       <c r="Q95" s="208"/>
       <c r="R95" s="209"/>
       <c r="S95" s="435" t="s">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="T95" s="436"/>
       <c r="U95" s="436"/>
@@ -18143,7 +18137,7 @@
         <v>2</v>
       </c>
       <c r="H96" s="435" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I96" s="436"/>
       <c r="J96" s="436"/>
@@ -18158,7 +18152,7 @@
       <c r="Q96" s="440"/>
       <c r="R96" s="441"/>
       <c r="S96" s="435" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="T96" s="436"/>
       <c r="U96" s="436"/>
@@ -18183,7 +18177,7 @@
         <v>3</v>
       </c>
       <c r="H97" s="435" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I97" s="436"/>
       <c r="J97" s="436"/>
@@ -18196,7 +18190,7 @@
       <c r="Q97" s="443"/>
       <c r="R97" s="444"/>
       <c r="S97" s="435" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T97" s="436"/>
       <c r="U97" s="436"/>
@@ -18221,7 +18215,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="435" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I98" s="436"/>
       <c r="J98" s="436"/>
@@ -18234,7 +18228,7 @@
       <c r="Q98" s="443"/>
       <c r="R98" s="444"/>
       <c r="S98" s="435" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T98" s="436"/>
       <c r="U98" s="436"/>
@@ -18272,7 +18266,7 @@
       <c r="Q99" s="443"/>
       <c r="R99" s="444"/>
       <c r="S99" s="435" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T99" s="436"/>
       <c r="U99" s="436"/>
@@ -18310,7 +18304,7 @@
       <c r="Q100" s="443"/>
       <c r="R100" s="444"/>
       <c r="S100" s="435" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="T100" s="436"/>
       <c r="U100" s="436"/>
@@ -18373,7 +18367,7 @@
         <v>8</v>
       </c>
       <c r="H102" s="435" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I102" s="436"/>
       <c r="J102" s="436"/>
@@ -18411,7 +18405,7 @@
         <v>9</v>
       </c>
       <c r="H103" s="435" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I103" s="436"/>
       <c r="J103" s="436"/>
@@ -18424,7 +18418,7 @@
       <c r="Q103" s="443"/>
       <c r="R103" s="444"/>
       <c r="S103" s="435" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T103" s="436"/>
       <c r="U103" s="436"/>
@@ -18449,7 +18443,7 @@
         <v>10</v>
       </c>
       <c r="H104" s="435" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I104" s="436"/>
       <c r="J104" s="436"/>
@@ -18462,7 +18456,7 @@
       <c r="Q104" s="443"/>
       <c r="R104" s="444"/>
       <c r="S104" s="435" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T104" s="436"/>
       <c r="U104" s="436"/>
@@ -18525,7 +18519,7 @@
         <v>12</v>
       </c>
       <c r="H106" s="435" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I106" s="436"/>
       <c r="J106" s="436"/>
@@ -18538,7 +18532,7 @@
       <c r="Q106" s="443"/>
       <c r="R106" s="444"/>
       <c r="S106" s="435" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T106" s="436"/>
       <c r="U106" s="436"/>
@@ -18615,7 +18609,7 @@
     </row>
     <row r="112" spans="5:37" x14ac:dyDescent="0.15">
       <c r="F112" s="106" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.15">
@@ -18630,7 +18624,7 @@
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.15">
       <c r="F119" s="106" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -20047,13 +20041,13 @@
         <v>1</v>
       </c>
       <c r="E59" s="480" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F59" s="481"/>
       <c r="G59" s="481"/>
       <c r="H59" s="482"/>
       <c r="I59" s="244" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J59" s="336"/>
       <c r="K59" s="336"/>
@@ -20062,7 +20056,7 @@
       <c r="N59" s="336"/>
       <c r="O59" s="337"/>
       <c r="P59" s="244" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q59" s="336"/>
       <c r="R59" s="336"/>
@@ -20074,7 +20068,7 @@
       <c r="X59" s="336"/>
       <c r="Y59" s="337"/>
       <c r="Z59" s="244" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA59" s="336"/>
       <c r="AB59" s="336"/>
@@ -20122,7 +20116,7 @@
     <row r="63" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A63" s="111"/>
       <c r="D63" s="106" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:53" x14ac:dyDescent="0.15">
@@ -20133,7 +20127,7 @@
       <c r="A65" s="111"/>
       <c r="D65" s="106"/>
       <c r="E65" s="106" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:40" x14ac:dyDescent="0.15">
@@ -20525,7 +20519,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="81" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B5" s="220" t="s">
         <v>163</v>
@@ -20552,7 +20546,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -20562,27 +20556,27 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="81" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="81" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="81" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
